--- a/docs/StructureDefinition-VAUnfinishedInpatientMedication.xlsx
+++ b/docs/StructureDefinition-VAUnfinishedInpatientMedication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$52</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="380">
   <si>
     <t>Path</t>
   </si>
@@ -326,21 +326,21 @@
     <t>MedicationRequest.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -349,17 +349,10 @@
     <t>MedicationRequest.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -571,8 +564,8 @@
     <t>MedicationRequest.medication[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(Medication)</t>
+    <t xml:space="preserve">Reference
+</t>
   </si>
   <si>
     <t>Medication to be taken</t>
@@ -584,13 +577,11 @@
     <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource. .</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept identifying substance or product that can be ordered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>…code</t>
@@ -614,6 +605,9 @@
     <t>RXE-2-Give Code / RXO-1-Requested Give Code / RXC-2-Component Code</t>
   </si>
   <si>
+    <t>medicationReference</t>
+  </si>
+  <si>
     <t>MedicationRequest.subject</t>
   </si>
   <si>
@@ -764,9 +758,6 @@
     <t>MedicationRequest.requester.extension</t>
   </si>
   <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -871,6 +862,9 @@
   </si>
   <si>
     <t>This could be a diagnosis code. If a full condition record exists or additional detail is needed, use reasonReference.</t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
   <si>
     <t>A coded concept indicating why the medication was ordered.</t>
@@ -1371,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO52"/>
+  <dimension ref="A1:AO53"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1381,7 +1375,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="59.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="20.62890625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -2369,7 +2363,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2388,15 +2382,17 @@
         <v>45</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>45</v>
@@ -2433,14 +2429,16 @@
         <v>45</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>104</v>
@@ -2467,7 +2465,7 @@
         <v>45</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>45</v>
@@ -2482,7 +2480,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2501,16 +2499,16 @@
         <v>45</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>107</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>108</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2560,7 +2558,7 @@
         <v>45</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>43</v>
@@ -2595,7 +2593,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2618,13 +2616,13 @@
         <v>45</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2675,7 +2673,7 @@
         <v>45</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>43</v>
@@ -2693,24 +2691,24 @@
         <v>45</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AM11" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AN11" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="AM11" t="s" s="2">
+      <c r="AO11" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>119</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2733,13 +2731,13 @@
         <v>55</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2790,7 +2788,7 @@
         <v>45</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>43</v>
@@ -2808,13 +2806,13 @@
         <v>45</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>45</v>
@@ -2825,7 +2823,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2848,13 +2846,13 @@
         <v>55</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="K13" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2905,7 +2903,7 @@
         <v>45</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>43</v>
@@ -2923,13 +2921,13 @@
         <v>45</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>45</v>
@@ -2940,7 +2938,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2963,17 +2961,17 @@
         <v>55</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>45</v>
@@ -3022,7 +3020,7 @@
         <v>45</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>43</v>
@@ -3040,13 +3038,13 @@
         <v>45</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>45</v>
@@ -3057,7 +3055,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3083,13 +3081,13 @@
         <v>73</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
@@ -3115,14 +3113,14 @@
         <v>45</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="X15" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>45</v>
       </c>
@@ -3139,7 +3137,7 @@
         <v>45</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>43</v>
@@ -3157,16 +3155,16 @@
         <v>45</v>
       </c>
       <c r="AK15" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AL15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AM15" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="AM15" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AN15" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>45</v>
@@ -3174,7 +3172,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3200,13 +3198,13 @@
         <v>73</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>150</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3232,13 +3230,13 @@
         <v>45</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>45</v>
@@ -3256,7 +3254,7 @@
         <v>45</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>54</v>
@@ -3274,16 +3272,16 @@
         <v>45</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>157</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>45</v>
@@ -3291,7 +3289,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3314,13 +3312,13 @@
         <v>45</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="K17" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3347,14 +3345,14 @@
         <v>45</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="X17" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>164</v>
-      </c>
       <c r="Z17" t="s" s="2">
         <v>45</v>
       </c>
@@ -3371,7 +3369,7 @@
         <v>45</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>43</v>
@@ -3392,13 +3390,13 @@
         <v>45</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>45</v>
@@ -3406,7 +3404,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3432,10 +3430,10 @@
         <v>73</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3462,13 +3460,13 @@
         <v>45</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>45</v>
@@ -3486,7 +3484,7 @@
         <v>45</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>43</v>
@@ -3504,16 +3502,16 @@
         <v>45</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>172</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>45</v>
@@ -3521,7 +3519,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3544,16 +3542,16 @@
         <v>55</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3579,31 +3577,29 @@
         <v>45</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>181</v>
+        <v>45</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="AB19" s="2"/>
       <c r="AC19" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>54</v>
@@ -3621,26 +3617,28 @@
         <v>45</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AL19" t="s" s="2">
+      <c r="AO19" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>187</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="C20" t="s" s="2">
         <v>45</v>
       </c>
@@ -3661,16 +3659,16 @@
         <v>55</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3720,7 +3718,7 @@
         <v>45</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>54</v>
@@ -3738,24 +3736,24 @@
         <v>45</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3763,7 +3761,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>54</v>
@@ -3775,19 +3773,19 @@
         <v>45</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3837,10 +3835,10 @@
         <v>45</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>54</v>
@@ -3855,24 +3853,24 @@
         <v>45</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3883,7 +3881,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>45</v>
@@ -3895,15 +3893,17 @@
         <v>45</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>200</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>45</v>
@@ -3952,13 +3952,13 @@
         <v>45</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>45</v>
@@ -3970,24 +3970,24 @@
         <v>45</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>45</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3998,7 +3998,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>45</v>
@@ -4007,16 +4007,16 @@
         <v>45</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4067,13 +4067,13 @@
         <v>45</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>45</v>
@@ -4085,24 +4085,24 @@
         <v>45</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>216</v>
+        <v>45</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>217</v>
+        <v>45</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4125,13 +4125,13 @@
         <v>55</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4182,7 +4182,7 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>43</v>
@@ -4194,30 +4194,30 @@
         <v>45</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>45</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4237,16 +4237,16 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4297,7 +4297,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4309,22 +4309,22 @@
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>45</v>
+        <v>223</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>45</v>
+        <v>225</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4332,18 +4332,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
@@ -4355,17 +4355,15 @@
         <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>45</v>
@@ -4414,13 +4412,13 @@
         <v>45</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>45</v>
@@ -4438,7 +4436,7 @@
         <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>45</v>
@@ -4449,11 +4447,11 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>239</v>
+        <v>99</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
@@ -4466,22 +4464,22 @@
         <v>45</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4531,7 +4529,7 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
@@ -4555,7 +4553,7 @@
         <v>45</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>45</v>
@@ -4566,39 +4564,39 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>55</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>243</v>
+        <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>244</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>246</v>
+        <v>103</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4648,13 +4646,13 @@
         <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>45</v>
@@ -4666,24 +4664,24 @@
         <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>247</v>
+        <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>249</v>
+        <v>97</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>250</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4691,7 +4689,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>54</v>
@@ -4706,18 +4704,18 @@
         <v>55</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -4765,16 +4763,16 @@
         <v>45</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>54</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>256</v>
+        <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>45</v>
@@ -4783,24 +4781,24 @@
         <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>45</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4820,19 +4818,21 @@
         <v>45</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="N30" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -4889,7 +4889,7 @@
         <v>54</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>45</v>
@@ -4898,16 +4898,16 @@
         <v>45</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4926,7 +4926,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -4938,17 +4938,15 @@
         <v>45</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>159</v>
+        <v>257</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
@@ -4973,13 +4971,13 @@
         <v>45</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>269</v>
+        <v>45</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>270</v>
+        <v>45</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>45</v>
@@ -4997,13 +4995,13 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
@@ -5015,24 +5013,24 @@
         <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>271</v>
+        <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>275</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5055,16 +5053,16 @@
         <v>45</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>277</v>
+        <v>157</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5090,13 +5088,13 @@
         <v>45</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>45</v>
+        <v>268</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>45</v>
@@ -5114,7 +5112,7 @@
         <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5132,24 +5130,24 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>146</v>
+        <v>270</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>45</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5172,15 +5170,17 @@
         <v>45</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5229,7 +5229,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5247,16 +5247,16 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>288</v>
+        <v>144</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>45</v>
@@ -5264,7 +5264,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5287,17 +5287,15 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
@@ -5346,7 +5344,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5364,13 +5362,13 @@
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>286</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5381,7 +5379,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5392,7 +5390,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
@@ -5404,15 +5402,17 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
@@ -5461,31 +5461,31 @@
         <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5519,13 +5519,13 @@
         <v>45</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>230</v>
+        <v>296</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5576,7 +5576,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>232</v>
+        <v>295</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5588,7 +5588,7 @@
         <v>45</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>45</v>
@@ -5597,10 +5597,10 @@
         <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>45</v>
+        <v>299</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
@@ -5611,18 +5611,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
@@ -5634,17 +5634,15 @@
         <v>45</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>45</v>
@@ -5693,13 +5691,13 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>45</v>
@@ -5717,7 +5715,7 @@
         <v>45</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -5728,11 +5726,11 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>239</v>
+        <v>99</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
@@ -5745,22 +5743,22 @@
         <v>45</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5810,7 +5808,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -5834,7 +5832,7 @@
         <v>45</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
@@ -5845,43 +5843,41 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>307</v>
+        <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>308</v>
+        <v>106</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>309</v>
+        <v>237</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -5929,13 +5925,13 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>306</v>
+        <v>238</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>45</v>
@@ -5950,10 +5946,10 @@
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>313</v>
+        <v>97</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
@@ -5964,7 +5960,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5987,18 +5983,20 @@
         <v>45</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>308</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>309</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
       </c>
@@ -6046,7 +6044,7 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6067,21 +6065,21 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>321</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6104,15 +6102,17 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6161,7 +6161,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6182,21 +6182,21 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6219,17 +6219,15 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>333</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
@@ -6278,7 +6276,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6299,21 +6297,21 @@
         <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>45</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6336,15 +6334,17 @@
         <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>252</v>
+        <v>328</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M43" s="2"/>
+        <v>330</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6393,7 +6393,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6414,13 +6414,13 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6451,13 +6451,13 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6508,7 +6508,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6520,7 +6520,7 @@
         <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>45</v>
@@ -6529,13 +6529,13 @@
         <v>45</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>343</v>
+        <v>45</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>45</v>
@@ -6543,7 +6543,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6566,13 +6566,13 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>230</v>
+        <v>339</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>231</v>
+        <v>340</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6623,7 +6623,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>232</v>
+        <v>338</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6635,7 +6635,7 @@
         <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>45</v>
@@ -6644,10 +6644,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>45</v>
+        <v>341</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>233</v>
+        <v>342</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6658,18 +6658,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -6681,17 +6681,15 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>99</v>
+        <v>227</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>109</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -6740,13 +6738,13 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>45</v>
@@ -6764,7 +6762,7 @@
         <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
@@ -6775,11 +6773,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>239</v>
+        <v>99</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6792,22 +6790,22 @@
         <v>45</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6857,7 +6855,7 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
@@ -6881,7 +6879,7 @@
         <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>97</v>
+        <v>231</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
@@ -6892,18 +6890,18 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>45</v>
+        <v>236</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
@@ -6912,19 +6910,19 @@
         <v>55</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>349</v>
+        <v>100</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>350</v>
+        <v>106</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>351</v>
+        <v>237</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>352</v>
+        <v>103</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6974,13 +6972,13 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>348</v>
+        <v>238</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
@@ -6995,21 +6993,21 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>343</v>
+        <v>45</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>353</v>
+        <v>97</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>354</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7017,7 +7015,7 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>54</v>
@@ -7026,21 +7024,23 @@
         <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>159</v>
+        <v>347</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>45</v>
@@ -7065,13 +7065,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>180</v>
+        <v>45</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7089,10 +7089,10 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>54</v>
@@ -7110,21 +7110,21 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>362</v>
+        <v>352</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7147,13 +7147,13 @@
         <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>364</v>
+        <v>157</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7180,13 +7180,13 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
+        <v>266</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7204,7 +7204,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7222,35 +7222,35 @@
         <v>45</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>367</v>
+        <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>370</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
@@ -7262,13 +7262,13 @@
         <v>45</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7319,13 +7319,13 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>45</v>
@@ -7337,13 +7337,13 @@
         <v>45</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>45</v>
+        <v>365</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7354,11 +7354,11 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7377,17 +7377,15 @@
         <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>379</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
@@ -7436,7 +7434,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7454,23 +7452,140 @@
         <v>45</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>380</v>
+        <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO52" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO52">
+  <autoFilter ref="A1:AO53">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7480,7 +7595,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI51">
+  <conditionalFormatting sqref="A2:AI52">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VAUnfinishedInpatientMedication.xlsx
+++ b/docs/StructureDefinition-VAUnfinishedInpatientMedication.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$46</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1944" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="268">
   <si>
     <t>Path</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Mapping: VistA</t>
   </si>
   <si>
-    <t>Mapping: Workflow Mapping</t>
-  </si>
-  <si>
     <t>Mapping: Mapping to NCPDP SCRIPT 10.6</t>
   </si>
   <si>
@@ -140,11 +137,10 @@
     <t>Mapping: HL7 v2 Mapping</t>
   </si>
   <si>
-    <t>MedicationRequest</t>
-  </si>
-  <si>
-    <t>Prescription
-Order</t>
+    <t>Medication</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>0</t>
@@ -153,32 +149,32 @@
     <t>*</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Ordering of medication for patient or group</t>
-  </si>
-  <si>
-    <t>An order or request for both supply of the medication and the instructions for administration of the medication to a patient. The resource is called "MedicationRequest" rather than "MedicationPrescription" or "MedicationOrder" to generalize the use across inpatient and outpatient settings, including care plans, etc., and to harmonize with workflow patterns.</t>
+    <t>Definition of a Medication</t>
+  </si>
+  <si>
+    <t>This resource is primarily used for the identification and definition of a medication. It covers the ingredients and the packaging for a medication.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
 dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}</t>
   </si>
   <si>
-    <t>..Request</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx</t>
-  </si>
-  <si>
-    <t>CombinedMedicationRequest</t>
+    <t>NewRx/MedicationPrescribed+-or-+RxFill/MedicationDispensed+-or-+RxHistoryResponse/MedicationDispensed+-or-+RxHistoryResponse/MedicationPrescribed</t>
+  </si>
+  <si>
+    <t>ManufacturedProduct[classCode=ADMM]</t>
   </si>
   <si>
     <t>clinical.medication</t>
   </si>
   <si>
-    <t>MedicationRequest.id</t>
+    <t>Medication.id</t>
   </si>
   <si>
     <t>1</t>
@@ -203,7 +199,7 @@
     <t>Resource.id</t>
   </si>
   <si>
-    <t>MedicationRequest.meta</t>
+    <t>Medication.meta</t>
   </si>
   <si>
     <t xml:space="preserve">Meta
@@ -219,7 +215,7 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t>MedicationRequest.implicitRules</t>
+    <t>Medication.implicitRules</t>
   </si>
   <si>
     <t xml:space="preserve">uri
@@ -239,7 +235,7 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>MedicationRequest.language</t>
+    <t>Medication.language</t>
   </si>
   <si>
     <t xml:space="preserve">code
@@ -267,7 +263,7 @@
     <t>Resource.language</t>
   </si>
   <si>
-    <t>MedicationRequest.text</t>
+    <t>Medication.text</t>
   </si>
   <si>
     <t>narrative
@@ -297,7 +293,7 @@
     <t>Act.text?</t>
   </si>
   <si>
-    <t>MedicationRequest.contained</t>
+    <t>Medication.contained</t>
   </si>
   <si>
     <t>inline resources
@@ -323,7 +319,7 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>MedicationRequest.extension</t>
+    <t>Medication.extension</t>
   </si>
   <si>
     <t>extensions
@@ -346,7 +342,7 @@
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>MedicationRequest.modifierExtension</t>
+    <t>Medication.modifierExtension</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -358,223 +354,224 @@
     <t>DomainResource.modifierExtension</t>
   </si>
   <si>
-    <t>MedicationRequest.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>External ids for this request</t>
-  </si>
-  <si>
-    <t>This records identifiers associated with this medication request that are defined by business processes and/or used to refer to it when a direct URL reference to the resource itself is not appropriate. For example a re-imbursement system might issue its own id for each prescription that is created.  This is particularly important where FHIR only provides part of an entire workflow process where records must be tracked through an entire system.</t>
-  </si>
-  <si>
-    <t>…identifer</t>
-  </si>
-  <si>
-    <t>Message/Header/PrescriberOrderNumber</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>ORC-2-Placer Order Number / ORC-3-Filler Order Number</t>
-  </si>
-  <si>
-    <t>MedicationRequest.definition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(ActivityDefinition|PlanDefinition)
-</t>
-  </si>
-  <si>
-    <t>Protocol or definition</t>
-  </si>
-  <si>
-    <t>Protocol or definition followed by this request.</t>
-  </si>
-  <si>
-    <t>…definition</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=DEFN].target[classCode=unspecified]</t>
-  </si>
-  <si>
-    <t>MedicationRequest.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|MedicationRequest|ProcedureRequest|ReferralRequest)
-</t>
-  </si>
-  <si>
-    <t>What request fulfills</t>
-  </si>
-  <si>
-    <t>A plan or request that is fulfilled in whole or in part by this medication request.</t>
-  </si>
-  <si>
-    <t>…basedOn</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target[classCode=SBADM or PROC or PCPR or OBS, moodCode=RQO orPLAN or PRP]</t>
-  </si>
-  <si>
-    <t>MedicationRequest.groupIdentifier</t>
-  </si>
-  <si>
-    <t>Composite request this is part of</t>
-  </si>
-  <si>
-    <t>A shared identifier common to all requests that were authorized more or less simultaneously by a single author, representing the identifier of the requisition or prescription.</t>
-  </si>
-  <si>
-    <t>Requests are linked either by a "basedOn" relationship (i.e. one request is fulfilling another) or by having a common requisition. Requests that are part of the same requisition are generally treated independently from the perspective of changing their state or maintaining them after initial creation.</t>
-  </si>
-  <si>
-    <t>…groupIdentifier</t>
-  </si>
-  <si>
-    <t>.outboundRelationship(typeCode=COMP].target[classCode=SBADM, moodCode=INT].id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.status</t>
-  </si>
-  <si>
-    <t>active | on-hold | cancelled | completed | entered-in-error | stopped | draft | unknown</t>
-  </si>
-  <si>
-    <t>A code specifying the current state of the order.  Generally this will be active or completed state.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>A coded concept specifying the state of the prescribing event. Describes the lifecycle of the prescription</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-request-status</t>
-  </si>
-  <si>
-    <t>…status</t>
-  </si>
-  <si>
-    <t>no mapping</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>MedicationRequest.intent</t>
-  </si>
-  <si>
-    <t>proposal | plan | order | instance-order</t>
-  </si>
-  <si>
-    <t>Whether the request is a proposal, plan, or an original order.</t>
-  </si>
-  <si>
-    <t>It is expected that the type of requester will be restricted for different stages of a MedicationRequest.  For example, Proposals can be created by a patient, relatedPerson, Practitioner or Device.  Plans can be created by Practitioners, Patients, RelatedPersons and Devices.  Original orders can be created by a Practitioner only.--An instance-order is an instantiation of a request or order and may be used to populate Medication Administration Record.
-This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>The kind of medication order</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-request-intent</t>
-  </si>
-  <si>
-    <t>…intent</t>
-  </si>
-  <si>
-    <t>.moodCode (nuances beyond PRP/PLAN/RQO would need to be elsewhere)</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>MedicationRequest.category</t>
+    <t>Medication.code</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Type of medication usage</t>
-  </si>
-  <si>
-    <t>Indicates the type of medication order and where the medication is expected to be consumed or administered.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A coded concept identifying where the medication ordered is expected to be consumed or administered</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-request-category</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/Directions+    <t>Codes that identify this medication</t>
+  </si>
+  <si>
+    <t>A code (or set of codes) that specify this medication, or a textual description if no code is available. Usage note: This could be a standard medication code such as a code from RxNorm, SNOMED CT, IDMP etc. It could also be a national or local formulary code, optionally with translations to other code systems.</t>
+  </si>
+  <si>
+    <t>Depending on the context of use, the code that was actually selected by the user (prescriber, dispenser, etc.) will have the coding.userSelected set to true.  As described in the coding datatype: "A coding may be marked as a "userSelected" if a user selected the particular coded value in a user interface (e.g. the user selects an item in a pick-list). If a user selected coding exists, it is the preferred choice for performing translations etc.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A coded concept that defines the type of a medication</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
+  </si>
+  <si>
+    <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode -or +coding.system = //element(*,MedicationType)/DrugCoded/ProductCodeQualifier -Message/Body/NewRx/MedicationPrescribed/StructuredSIG</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=OBS, moodCode=EVN, code="type of medication usage"].value</t>
-  </si>
-  <si>
-    <t>MedicationRequest.priority</t>
-  </si>
-  <si>
-    <t>routine | urgent | stat | asap</t>
-  </si>
-  <si>
-    <t>Indicates how quickly the Medication Request should be addressed with respect to other requests.</t>
-  </si>
-  <si>
-    <t>Identifies the level of importance to be assigned to actioning the request</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-request-priority</t>
-  </si>
-  <si>
-    <t>…priority</t>
-  </si>
-  <si>
-    <t>.priorityCode</t>
-  </si>
-  <si>
-    <t>grade</t>
-  </si>
-  <si>
-    <t>MedicationRequest.medication[x]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference
+coding.display = //element(*,MedicationType)/DrugDescription</t>
+  </si>
+  <si>
+    <t>.code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>RXO-1.1-Requested Give Code.code / RXE-2.1-Give Code.code / RXD-2.1-Dispense/Give Code.code / RXG-4.1-Give Code.code /RXA-5.1-Administered Code.code / RXC-2.1 Component Code</t>
+  </si>
+  <si>
+    <t>Medication.status</t>
+  </si>
+  <si>
+    <t>active | inactive | entered-in-error</t>
+  </si>
+  <si>
+    <t>A code to indicate if the medication is in active use.</t>
+  </si>
+  <si>
+    <t>This status is not intended to specify if a medication is part of a formulary.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>A coded concept defining if the medication is in active use</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>Medication.isBrand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
 </t>
   </si>
   <si>
-    <t>Medication to be taken</t>
-  </si>
-  <si>
-    <t>Identifies the medication being requested. This is a link to a resource that represents the medication which may be the details of the medication or simply an attribute carrying a code that identifies the medication from a known list of medications.</t>
-  </si>
-  <si>
-    <t>If only a code is specified, then it needs to be a code for a specific product. If more information is required, then the use of the medication resource is recommended.  For example, if you require form or lot number or if the medication is compounded or extemporaneously prepared, then you must reference the Medication resource. .</t>
+    <t>True if a brand</t>
+  </si>
+  <si>
+    <t>Set to true if the item is attributable to a specific manufacturer.</t>
+  </si>
+  <si>
+    <t>no mapping</t>
+  </si>
+  <si>
+    <t>true if .player.scopingRole[typeCode=MANU] exists</t>
+  </si>
+  <si>
+    <t>Medication.isOverTheCounter</t>
+  </si>
+  <si>
+    <t>True if medication does not require a prescription</t>
+  </si>
+  <si>
+    <t>Set to true if the medication can be obtained without an order from a prescriber.</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Medication.manufacturer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Manufacturer of the item</t>
+  </si>
+  <si>
+    <t>Describes the details of the manufacturer of the medication product.  This is not intended to represent the distributor of a medication product.</t>
+  </si>
+  <si>
+    <t>.player.scopingRole[typeCode=MANU].scoper</t>
+  </si>
+  <si>
+    <t>who.actor</t>
+  </si>
+  <si>
+    <t>RXD-20-Substance Manufacturer Name / RXG-21-Substance Manufacturer Name / RXA-17-Substance Manufacturer Name</t>
+  </si>
+  <si>
+    <t>Medication.form</t>
+  </si>
+  <si>
+    <t>powder | tablets | capsule +</t>
+  </si>
+  <si>
+    <t>Describes the form of the item.  Powder; tablets; capsule.</t>
+  </si>
+  <si>
+    <t>When Medication is referenced from MedicationRequest, this is the ordered form.  When Medication is referenced within MedicationDispense, this is the dispensed form.  When Medication is referenced within MedicationAdministration, this is administered form.</t>
+  </si>
+  <si>
+    <t>A coded concept defining the form of a medication</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-form-codes</t>
+  </si>
+  <si>
+    <t>coding.code =  //element(*,DrugCodedType)/FormCode++coding.system = //element(*,DrugCodedType)/FormSourceCode</t>
+  </si>
+  <si>
+    <t>.formCode</t>
+  </si>
+  <si>
+    <t>RXO-5-Requested Dosage Form / RXE-6-Give Dosage Form / RXD-6-Actual Dosage Form / RXG-8-Give Dosage Form / RXA-8-Administered Dosage Form</t>
+  </si>
+  <si>
+    <t>Medication.ingredient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Active or inactive ingredient</t>
+  </si>
+  <si>
+    <t>Identifies a particular constituent of interest in the product.</t>
+  </si>
+  <si>
+    <t>The ingredients need not be a complete list.  If an ingredient is not specified, this does not indicate whether an ingredient is present or absent.  If an ingredient is specified it does not mean that all ingredients are specified.  It is possible to specify both inactive and active ingredients.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>.scopesRole[typeCode=INGR]</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x]</t>
+  </si>
+  <si>
+    <t>The product contained</t>
+  </si>
+  <si>
+    <t>The actual ingredient - either a substance (simple ingredient) or another medication.</t>
   </si>
   <si>
     <t xml:space="preserve">type:$this}
@@ -584,639 +581,286 @@
     <t>closed</t>
   </si>
   <si>
-    <t>…code</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed--Medication.code.coding.code = Message/Body/NewRx/MedicationPrescribed/DrugCoded/ProductCode--Medication.code.coding.system = Message/Body/NewRx/MedicationPrescribed/DrugCoded/ProductCodeQualifier--Medication.code.coding.display = Message/Body/NewRx/MedicationPrescribed/DrugDescription</t>
-  </si>
-  <si>
-    <t>consumable.administrableMedication</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>RXE-2-Give Code / RXO-1-Requested Give Code / RXC-2-Component Code</t>
-  </si>
-  <si>
-    <t>medicationReference</t>
-  </si>
-  <si>
-    <t>MedicationRequest.subject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t>.player</t>
+  </si>
+  <si>
+    <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
+  </si>
+  <si>
+    <t>itemCodeableConcept</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].id</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
-    <t>Who or group medication request is for</t>
-  </si>
-  <si>
-    <t>A link to a resource representing the person or set of individuals to whom the medication will be given.</t>
-  </si>
-  <si>
-    <t>The subject on a medication request is mandatory.  For the secondary use case where the actual subject is not provided, there still must be an anonymized subject specified.</t>
-  </si>
-  <si>
-    <t>…subject</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/Patient--(need detail to link to specific patient … Patient.Identification in SCRIPT)</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=AUT].role</t>
-  </si>
-  <si>
-    <t>who.focus</t>
-  </si>
-  <si>
-    <t>PID-3-Patient ID List</t>
-  </si>
-  <si>
-    <t>MedicationRequest.context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Encounter|EpisodeOfCare)
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>Created during encounter/admission/stay</t>
-  </si>
-  <si>
-    <t>A link to an encounter, or episode of care, that identifies the particular occurrence or set occurrences of contact between patient and health care provider.</t>
-  </si>
-  <si>
-    <t>SubstanceAdministration-&gt;component-&gt;EncounterEvent.</t>
-  </si>
-  <si>
-    <t>…context</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=COMP].source[classCode=ENC, moodCode=EVN, code="type of encounter or episode"]</t>
-  </si>
-  <si>
-    <t>context</t>
-  </si>
-  <si>
-    <t>PV1-19-Visit Number</t>
-  </si>
-  <si>
-    <t>MedicationRequest.supportingInformation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].text</t>
+  </si>
+  <si>
+    <t>ADDITIVE</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>The additive selected as part of the IV order.  This entry is a pointer  to the ADDITIVES file (52.6).</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @ADDITIVE 53.157-.01b</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.isActive</t>
+  </si>
+  <si>
+    <t>Active ingredient indicator</t>
+  </si>
+  <si>
+    <t>Indication of whether this ingredient affects the therapeutic action of the drug.</t>
+  </si>
+  <si>
+    <t>True indicates that the ingredient affects the therapeutic action of the drug (i.e. active). +False indicates that the ingredient does not affect the therapeutic action of the drug (i.e. inactive).</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.amount</t>
+  </si>
+  <si>
+    <t>STRENGTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
 </t>
   </si>
   <si>
-    <t>Information to support ordering of the medication</t>
-  </si>
-  <si>
-    <t>Include additional information (for example, patient height and weight) that supports the ordering of the medication.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=PERT].target[A_SupportingClinicalStatement CMET minimal with many different choices of classCodes(ORG, ENC, PROC, SPLY, SBADM, OBS) and each of the act class codes draws from one or more of the following moodCodes (EVN, DEF, INT PRMS, RQO, PRP, APT, ARQ, GOL)]</t>
-  </si>
-  <si>
-    <t>MedicationRequest.authoredOn</t>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>"STRENGTH" is the amount of an additive to be used in the manufacturing of the IV order. NOTE! You will be expected to use the strength units that were previously defined within the IV ADDITIVE file (52.6) for each
+additive. For example, if the DRUG UNITS field of the IV ADDITIVES file specifies the units for ampicillin to be in grams, it would be incorrect to enter 500 for a half-gram dose. Enter 0.5 instead.</t>
+  </si>
+  <si>
+    <t>NON-VERIFIED ORDERS @STRENGTH 53.157-1</t>
+  </si>
+  <si>
+    <t>//element(*,DrugCodedType)/Strength</t>
+  </si>
+  <si>
+    <t>.quantity</t>
+  </si>
+  <si>
+    <t>RXC-3-Component Amount &amp; RXC-4-Component Units  if medication: RXO-2-Requested Give Amount - Minimum &amp; RXO-4-Requested Give Units / RXO-3-Requested Give Amount - Maximum &amp; RXO-4-Requested Give Units / RXO-11-Requested Dispense Amount &amp; RXO-12-Requested Dispense Units / RXE-3-Give Amount - Minimum &amp; RXE-5-Give Units / RXE-4-Give Amount - Maximum &amp; RXE-5-Give Units / RXE-10-Dispense Amount &amp; RXE-10-Dispense Units</t>
+  </si>
+  <si>
+    <t>Medication.package</t>
+  </si>
+  <si>
+    <t>Details about packaged medications</t>
+  </si>
+  <si>
+    <t>Information that only applies to packages (not products).</t>
+  </si>
+  <si>
+    <t>.player[classCode=CONT]</t>
+  </si>
+  <si>
+    <t>Medication.package.id</t>
+  </si>
+  <si>
+    <t>Medication.package.extension</t>
+  </si>
+  <si>
+    <t>Medication.package.modifierExtension</t>
+  </si>
+  <si>
+    <t>Medication.package.container</t>
+  </si>
+  <si>
+    <t>E.g. box, vial, blister-pack</t>
+  </si>
+  <si>
+    <t>The kind of container that this package comes as.</t>
+  </si>
+  <si>
+    <t>A coded concept defining the kind of container a medication package is packaged in</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-package-form</t>
+  </si>
+  <si>
+    <t>Medication.package.content</t>
+  </si>
+  <si>
+    <t>What is  in the package</t>
+  </si>
+  <si>
+    <t>A set of components that go to make up the described item.</t>
+  </si>
+  <si>
+    <t>.scopesRole[typeCode=CONT]</t>
+  </si>
+  <si>
+    <t>Medication.package.content.id</t>
+  </si>
+  <si>
+    <t>Medication.package.content.extension</t>
+  </si>
+  <si>
+    <t>Medication.package.content.modifierExtension</t>
+  </si>
+  <si>
+    <t>Medication.package.content.item[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Medication)</t>
+  </si>
+  <si>
+    <t>The item in the package</t>
+  </si>
+  <si>
+    <t>Identifies one of the items in the package.</t>
+  </si>
+  <si>
+    <t>Medication.package.content.amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity {SimpleQuantity}
+</t>
+  </si>
+  <si>
+    <t>Quantity present in the package</t>
+  </si>
+  <si>
+    <t>The amount of the product that is in the package.</t>
+  </si>
+  <si>
+    <t>Medication.package.batch</t>
+  </si>
+  <si>
+    <t>Identifies a single production run</t>
+  </si>
+  <si>
+    <t>Information about a group of medication produced or packaged from one production run.</t>
+  </si>
+  <si>
+    <t>participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].id</t>
+  </si>
+  <si>
+    <t>Medication.package.batch.id</t>
+  </si>
+  <si>
+    <t>Medication.package.batch.extension</t>
+  </si>
+  <si>
+    <t>Medication.package.batch.modifierExtension</t>
+  </si>
+  <si>
+    <t>Medication.package.batch.lotNumber</t>
+  </si>
+  <si>
+    <t>Identifier assigned to batch</t>
+  </si>
+  <si>
+    <t>The assigned lot number of a batch of the specified product.</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>RXA-15 Substance Lot Number / RXG-19 Substance Lot Number</t>
+  </si>
+  <si>
+    <t>Medication.package.batch.expirationDate</t>
   </si>
   <si>
     <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
-    <t>When request was initially authored</t>
-  </si>
-  <si>
-    <t>The date (and perhaps time) when the prescription was initially written or authored on.</t>
-  </si>
-  <si>
-    <t>…authoredOn</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/WrittenDate</t>
-  </si>
-  <si>
-    <t>author.time</t>
-  </si>
-  <si>
-    <t>when.recorded</t>
-  </si>
-  <si>
-    <t>RXE-32-Original Order Date/Time / ORC-9-Date/Time of Transaction</t>
-  </si>
-  <si>
-    <t>MedicationRequest.requester</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
+    <t>When batch will expire</t>
+  </si>
+  <si>
+    <t>When this specific batch of product will expire.</t>
+  </si>
+  <si>
+    <t>participation[typeCode=CSM].role[classCode=INST].scopedRole.scoper[classCode=MMAT].expirationTime</t>
+  </si>
+  <si>
+    <t>RXA-16 Substance Expiration Date / RXG-20 Substance Expiration Date</t>
+  </si>
+  <si>
+    <t>Medication.image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment
 </t>
   </si>
   <si>
-    <t>Who/What requested the Request</t>
-  </si>
-  <si>
-    <t>The individual, organization or device that initiated the request and has responsibility for its activation.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-mps-1:onBehalfOf can only be specified if agent is practitioner or device {(agent.resolve().empty()) or (agent.resolve() is Device) or (agent.resolve() is Practitioner) or onBehalfOf.exists().not()}</t>
-  </si>
-  <si>
-    <t>…requester</t>
-  </si>
-  <si>
-    <t>who.author</t>
-  </si>
-  <si>
-    <t>MedicationRequest.requester.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>MedicationRequest.requester.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.requester.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.requester.agent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|Organization|Patient|RelatedPerson|Device)
-</t>
-  </si>
-  <si>
-    <t>Who ordered the initial medication(s)</t>
-  </si>
-  <si>
-    <t>The healthcare professional responsible for authorizing the initial prescription.</t>
-  </si>
-  <si>
-    <t>It is expected that the type of requester will be restricted for different stages of a MedicationRequest.  For example, Proposals can be created by a patient, relatedPerson, Practitioner or Device.  Plans can be created by Practitioners, Patients, RelatedPersons and Devices.  Original orders can be created by a Practitioner only.</t>
-  </si>
-  <si>
-    <t>….agent</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/Prescriber--(need detail to link to specific prescriber … Prescriber.Identification in SCRIPT)</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>RXE-13-Ordering Provider's DEA Number / RXO-14-Ordering Provider's DEA Number / RXE-14-Pharmacist/Treatment Supplier's Verifier ID / RXO-15-Pharmacist/Treatment Supplier's Verifier ID / ORC-12-Ordering Provider / PRT-5-Participation Person: PRT-4-Participation='OP' (all but last deprecated)</t>
-  </si>
-  <si>
-    <t>MedicationRequest.requester.onBehalfOf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization agent is acting for</t>
-  </si>
-  <si>
-    <t>The organization the device or practitioner was acting on behalf of.</t>
-  </si>
-  <si>
-    <t>Practitioners and Devices can be associated with multiple organizations. This element indicates which organization they were acting on behalf of when authoring the request.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mps-1
-</t>
-  </si>
-  <si>
-    <t>….onBehalfOf</t>
-  </si>
-  <si>
-    <t>.scoper</t>
-  </si>
-  <si>
-    <t>MedicationRequest.recorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner)
-</t>
-  </si>
-  <si>
-    <t>Person who entered the request</t>
-  </si>
-  <si>
-    <t>The person who entered the order on behalf of another individual for example in the case of a verbal or a telephone order.</t>
-  </si>
-  <si>
-    <t>.participation[typeCode=TRANS].role[classCode=ASSIGNED].code (HealthcareProviderType)</t>
-  </si>
-  <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>MedicationRequest.reasonCode</t>
-  </si>
-  <si>
-    <t>Reason or indication for writing the prescription</t>
-  </si>
-  <si>
-    <t>The reason or the indication for ordering the medication.</t>
-  </si>
-  <si>
-    <t>This could be a diagnosis code. If a full condition record exists or additional detail is needed, use reasonReference.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A coded concept indicating why the medication was ordered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/condition-code</t>
-  </si>
-  <si>
-    <t>…reasonCode</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/Diagnosis/Primary/Value</t>
-  </si>
-  <si>
-    <t>reason.observation.reasonCode</t>
-  </si>
-  <si>
-    <t>why</t>
-  </si>
-  <si>
-    <t>ORC-16-Order Control Code Reason /RXE-27-Give Indication/RXO-20-Indication / RXD-21-Indication / RXG-22-Indication / RXA-19-Indication</t>
-  </si>
-  <si>
-    <t>MedicationRequest.reasonReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Condition|Observation)
-</t>
-  </si>
-  <si>
-    <t>Condition or Observation that supports why the prescription is being written</t>
-  </si>
-  <si>
-    <t>Condition or observation that supports why the medication was ordered.</t>
-  </si>
-  <si>
-    <t>This is a reference to a condition or observation that is the reason for the medication order.  If only a code exists, use reasonCode.</t>
-  </si>
-  <si>
-    <t>…reasonReference</t>
-  </si>
-  <si>
-    <t>reason.observation[code=ASSERTION].value</t>
-  </si>
-  <si>
-    <t>MedicationRequest.note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Annotation
-</t>
-  </si>
-  <si>
-    <t>Information about the prescription</t>
-  </si>
-  <si>
-    <t>Extra information about the prescription that could not be conveyed by the other attributes.</t>
-  </si>
-  <si>
-    <t>…note</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/Note</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ]/source[classCode=OBS,moodCode=EVN,code="annotation"].value</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dosage
-</t>
-  </si>
-  <si>
-    <t>How the medication should be taken</t>
-  </si>
-  <si>
-    <t>Indicates how the medication is to be used by the patient.</t>
-  </si>
-  <si>
-    <t>There are examples where a medication request may include the option of an oral dose or an Intravenous or Intramuscular dose.  For example, "Ondansetron 8mg orally or IV twice a day as needed for nausea" or "Compazine® (prochlorperazine) 5-10mg PO or 25mg PR bid prn nausea or vomiting".  In these cases, two medication requests would be created that could be grouped together.  The decision on which dose and route of administration to use is based on the patient's condition at the time the dose is needed.</t>
-  </si>
-  <si>
-    <t>…occurrence[x]</t>
-  </si>
-  <si>
-    <t>see dosageInstruction mapping</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest</t>
-  </si>
-  <si>
-    <t>Medication supply authorization</t>
-  </si>
-  <si>
-    <t>Indicates the specific details for the dispense or medication supply part of a medication request (also known as a Medication Prescription or Medication Order).  Note that this information is not always sent with the order.  There may be in some settings (e.g. hospitals) institutional or system support for completing the dispense details in the pharmacy department.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/ExpirationDate</t>
-  </si>
-  <si>
-    <t>component.supplyEvent</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.validityPeriod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period supply is authorized for</t>
-  </si>
-  <si>
-    <t>This indicates the validity period of a prescription (stale dating the Prescription).</t>
-  </si>
-  <si>
-    <t>It reflects the prescribers' perspective for the validity of the prescription. Dispenses must not be made against the prescription outside of this period. The lower-bound of the Dispensing Window signifies the earliest date that the prescription can be filled for the first time. If an upper-bound is not specified then the Prescription is open-ended or will default to a stale-date based on regulations.</t>
-  </si>
-  <si>
-    <t>Indicates when the Prescription becomes valid, and when it ceases to be a dispensable Prescription.</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/Refills</t>
-  </si>
-  <si>
-    <t>effectiveTime</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.numberOfRepeatsAllowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Number of refills authorized</t>
-  </si>
-  <si>
-    <t>An integer indicating the number of times, in addition to the original dispense, (aka refills or repeats) that the patient can receive the prescribed medication. Usage Notes: This integer does not include the original order dispense. This means that if an order indicates dispense 30 tablets plus "3 repeats", then the order can be dispensed a total of 4 times and the patient can receive a total of 120 tablets.</t>
-  </si>
-  <si>
-    <t>If displaying "number of authorized fills", add 1 to this number.</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/Quantity</t>
-  </si>
-  <si>
-    <t>repeatNumber</t>
-  </si>
-  <si>
-    <t>RXE-12-Number of Refills</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.quantity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
-</t>
-  </si>
-  <si>
-    <t>Amount of medication to supply per dispense</t>
-  </si>
-  <si>
-    <t>The amount that is to be dispensed for one fill.</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/DaysSupply</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>RXD-4-Actual Dispense Amount / RXD-5.1-Actual Dispense Units.code / RXD-5.3-Actual Dispense Units.name of coding system</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.expectedSupplyDuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Duration
-</t>
-  </si>
-  <si>
-    <t>Number of days supply per dispense</t>
-  </si>
-  <si>
-    <t>Identifies the period time over which the supplied product is expected to be used, or the length of time the dispense is expected to last.</t>
-  </si>
-  <si>
-    <t>In some situations, this attribute may be used instead of quantity to identify the amount supplied by how long it is expected to last, rather than the physical quantity issued, e.g. 90 days supply of medication (based on an ordered dosage) When possible, it is always better to specify quantity, as this tends to be more precise. expectedSupplyDuration will always be an estimate that can be influenced by external factors.</t>
-  </si>
-  <si>
-    <t>Message/Body/NewRx/MedicationPrescribed/Substitutions</t>
-  </si>
-  <si>
-    <t>expectedUseTime</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dispenseRequest.performer</t>
-  </si>
-  <si>
-    <t>Intended dispenser</t>
-  </si>
-  <si>
-    <t>Indicates the intended dispensing Organization specified by the prescriber.</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=COMP].target[classCode=SPLY, moodCode=RQO] .participation[typeCode=PRF].role[scoper.determinerCode=INSTANCE]</t>
-  </si>
-  <si>
-    <t>MedicationRequest.substitution</t>
-  </si>
-  <si>
-    <t>Any restrictions on medication substitution</t>
-  </si>
-  <si>
-    <t>Indicates whether or not substitution can or should be part of the dispense. In some cases substitution must happen, in other cases substitution must not happen. This block explains the prescriber's intent. If nothing is specified substitution may be done.</t>
-  </si>
-  <si>
-    <t>specific values within Message/Body/NewRx/MedicationPrescribed/Substitutions</t>
-  </si>
-  <si>
-    <t>subjectOf.substitutionPersmission</t>
-  </si>
-  <si>
-    <t>MedicationRequest.substitution.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.substitution.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.substitution.modifierExtension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.substitution.allowed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether substitution is allowed or not</t>
-  </si>
-  <si>
-    <t>True if the prescriber allows a different drug to be dispensed from what was prescribed.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifer because whether substitution is allow or not cannot be ignored.</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>RXO-9-Allow Substitutions / RXE-9-Substitution Status</t>
-  </si>
-  <si>
-    <t>MedicationRequest.substitution.reason</t>
-  </si>
-  <si>
-    <t>Why should (not) substitution be made</t>
-  </si>
-  <si>
-    <t>Indicates the reason for the substitution, or why substitution must or must not be performed.</t>
-  </si>
-  <si>
-    <t>A coded concept describing the reason that a different medication should (or should not) be substituted from what was prescribed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/v3-SubstanceAdminSubstitutionReason</t>
-  </si>
-  <si>
-    <t>not mapped</t>
-  </si>
-  <si>
-    <t>reasonCode</t>
-  </si>
-  <si>
-    <t>RXE-9 Substition status</t>
-  </si>
-  <si>
-    <t>MedicationRequest.priorPrescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(MedicationRequest)
-</t>
-  </si>
-  <si>
-    <t>An order/prescription that is being replaced</t>
-  </si>
-  <si>
-    <t>A link to a resource representing an earlier order related order or prescription.</t>
-  </si>
-  <si>
-    <t>…replaces</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=?RPLC or ?SUCC]/target[classCode=SBADM,moodCode=RQO]</t>
-  </si>
-  <si>
-    <t>MedicationRequest.detectedIssue</t>
-  </si>
-  <si>
-    <t>Contraindication
-Drug Utilization Review (DUR)Alert</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DetectedIssue)
-</t>
-  </si>
-  <si>
-    <t>Clinical Issue with action</t>
-  </si>
-  <si>
-    <t>Indicates an actual or potential clinical issue with or between one or more active or proposed clinical actions for a patient; e.g. Drug-drug interaction, duplicate therapy, dosage alert etc.</t>
-  </si>
-  <si>
-    <t>.inboundRelationship[typeCode=SUBJ]/source[classCode=ALRT,moodCode=EVN].value</t>
-  </si>
-  <si>
-    <t>MedicationRequest.eventHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Provenance)
-</t>
-  </si>
-  <si>
-    <t>A list of events of interest in the lifecycle</t>
-  </si>
-  <si>
-    <t>Links to Provenance records for past versions of this resource or fulfilling request or event resources that identify key state transitions or updates that are likely to be relevant to a user looking at the current version of the resource.</t>
-  </si>
-  <si>
-    <t>This may not include provenances for all versions of the request – only those deemed “relevant” or important. This SHALL NOT include the Provenance associated with this current version of the resource. (If that provenance is deemed to be a “relevant” change, it will need to be added as part of a later update. Until then, it can be queried directly as the Provenance that points to this version using _revinclude All Provenances should have some historical version of this Request as their subject.).</t>
-  </si>
-  <si>
-    <t>…relevantHistory</t>
-  </si>
-  <si>
-    <t>.inboundRelationship(typeCode=SUBJ].source[classCode=CACT, moodCode=EVN]</t>
+    <t>Picture of the medication</t>
+  </si>
+  <si>
+    <t>Photo(s) or graphic representation(s) of the medication.</t>
+  </si>
+  <si>
+    <t>Note that "image" is only applicable when the medication.code represents a physical item (e.g. Amoxil 250 mg capsule) and not an abstract item (e.g. amoxicillin 250 mg).</t>
+  </si>
+  <si>
+    <t>.participation[typeCode=SUBJ].role[classCode=MANU],source[classCode=OBS,moodCode=EVN,code="type of image"].value(ED.image)</t>
   </si>
 </sst>
 </file>
@@ -1365,7 +1009,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO53"/>
+  <dimension ref="A1:AN46"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1374,17 +1018,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="59.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="20.62890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.2265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="21.3828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="11.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.3046875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="52.78125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1397,24 +1041,23 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.765625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.4296875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="78.765625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="49.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="59.37890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="16.921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="30.84375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="24.35546875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="45.43359375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="195.5390625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="126.55078125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="24.35546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1538,1171 +1181,1140 @@
       <c r="AN1" t="s" s="1">
         <v>39</v>
       </c>
-      <c r="AO1" t="s" s="1">
-        <v>40</v>
-      </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F2" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F2" t="s" s="2">
+      <c r="G2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="G2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>45</v>
-      </c>
-      <c r="H2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="L2" t="s" s="2">
-        <v>47</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG2" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AL2" t="s" s="2">
         <v>48</v>
       </c>
-      <c r="AJ2" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AM2" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="AL2" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AM2" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="AN2" t="s" s="2">
-        <v>52</v>
-      </c>
-      <c r="AO2" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="K3" t="s" s="2">
         <v>54</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>56</v>
-      </c>
-      <c r="K3" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>59</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO3" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO4" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="K5" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>70</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO5" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>73</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>76</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="X6" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AF6" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO6" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>86</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO7" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F8" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="G8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>92</v>
-      </c>
-      <c r="K8" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AF8" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG8" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO8" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F9" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="G9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="K9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG9" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO9" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F10" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="G10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="K10" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>103</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG10" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG10" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO10" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="M11" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="K11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AO11" t="s" s="2">
         <v>117</v>
       </c>
     </row>
@@ -2712,345 +2324,336 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>121</v>
       </c>
-      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>45</v>
+        <v>124</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>118</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="M14" s="2"/>
-      <c r="N14" t="s" s="2">
-        <v>133</v>
-      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" hidden="true">
@@ -3059,4533 +2662,3624 @@
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M15" t="s" s="2">
         <v>139</v>
       </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>141</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>142</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>45</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="X16" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="Y16" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="Y16" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="Z16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>45</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F17" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="G17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AF17" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG17" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG17" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="AH17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>169</v>
+        <v>41</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>98</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AB19" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC19" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>179</v>
+        <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>184</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>174</v>
+        <v>97</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>103</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>177</v>
+        <v>100</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>181</v>
+        <v>94</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>184</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>190</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>45</v>
+        <v>176</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>191</v>
+        <v>114</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>195</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>172</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="C22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>202</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AO22" t="s" s="2">
-        <v>204</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>180</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>206</v>
+        <v>160</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
+        <v>162</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>210</v>
+        <v>181</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>45</v>
+        <v>182</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>45</v>
+        <v>184</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG24" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="AH24" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>216</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="AO24" t="s" s="2">
-        <v>218</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F25" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="G25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>220</v>
+        <v>186</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>219</v>
+        <v>191</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG25" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="AH25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>45</v>
+        <v>192</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="AN25" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>45</v>
-      </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>194</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="E26" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>197</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>45</v>
+        <v>202</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>45</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>232</v>
+        <v>204</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>100</v>
+        <v>127</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="E28" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>238</v>
+        <v>208</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>45</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>240</v>
+        <v>153</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>245</v>
+        <v>220</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>247</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>250</v>
+        <v>161</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>251</v>
+        <v>162</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>252</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>248</v>
+        <v>163</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>253</v>
+        <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>255</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>256</v>
+        <v>222</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F31" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="G31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>258</v>
+        <v>98</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>256</v>
+        <v>167</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG31" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="AH31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>260</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F32" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>157</v>
+        <v>97</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>263</v>
+        <v>103</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>264</v>
+        <v>170</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>265</v>
+        <v>100</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>266</v>
+        <v>41</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>267</v>
+        <v>41</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>268</v>
+        <v>41</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>262</v>
+        <v>171</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG32" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG32" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH32" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>270</v>
+        <v>94</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>271</v>
+        <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>273</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>275</v>
+        <v>107</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>276</v>
+        <v>225</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>45</v>
+        <v>227</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>279</v>
+        <v>130</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F34" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F34" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="G34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>282</v>
+        <v>153</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>284</v>
+        <v>231</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>281</v>
+        <v>229</v>
       </c>
       <c r="AF34" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG34" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG34" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="AH34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>285</v>
+        <v>130</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>287</v>
+        <v>41</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>288</v>
+        <v>233</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>289</v>
+        <v>160</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>290</v>
+        <v>161</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>288</v>
+        <v>163</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>293</v>
+        <v>41</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>164</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F36" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F36" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>220</v>
+        <v>97</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>98</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>295</v>
+        <v>167</v>
       </c>
       <c r="AF36" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG36" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG36" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="AH36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>299</v>
+        <v>164</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>235</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F37" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F37" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>227</v>
+        <v>97</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>228</v>
+        <v>103</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>230</v>
+        <v>171</v>
       </c>
       <c r="AF37" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG37" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG37" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="AH37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>236</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>101</v>
+        <v>238</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>240</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>106</v>
+        <v>242</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>103</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>45</v>
+        <v>215</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F40" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F40" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>305</v>
+        <v>153</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>306</v>
+        <v>245</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>304</v>
+        <v>244</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG40" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>45</v>
+        <v>157</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>311</v>
+        <v>41</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO40" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>312</v>
+        <v>248</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>313</v>
+        <v>160</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>314</v>
+        <v>161</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>312</v>
+        <v>163</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>317</v>
+        <v>164</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>318</v>
+        <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>319</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>249</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F42" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F42" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="G42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>321</v>
+        <v>97</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>322</v>
+        <v>98</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="M42" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>100</v>
+      </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>320</v>
+        <v>167</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG42" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="AH42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>324</v>
+        <v>164</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>326</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>45</v>
+        <v>169</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F43" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F43" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="G43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>328</v>
+        <v>97</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>329</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>330</v>
+        <v>170</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>331</v>
+        <v>100</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>327</v>
+        <v>171</v>
       </c>
       <c r="AF43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG43" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG43" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="AH43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>332</v>
+        <v>94</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>333</v>
+        <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>251</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>335</v>
+        <v>252</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>336</v>
+        <v>253</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>334</v>
+        <v>251</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>45</v>
+        <v>254</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>337</v>
+        <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>45</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>256</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>339</v>
+        <v>258</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>340</v>
+        <v>259</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>338</v>
+        <v>256</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>341</v>
+        <v>260</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>342</v>
+        <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>45</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F46" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="F46" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="G46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+      <c r="N46" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="AF46" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG46" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AG46" t="s" s="2">
-        <v>54</v>
-      </c>
       <c r="AH46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>45</v>
+        <v>267</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>231</v>
+        <v>41</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" hidden="true">
-      <c r="A47" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J47" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" hidden="true">
-      <c r="A48" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H48" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="I48" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="J48" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" hidden="true">
-      <c r="A49" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="F49" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="K49" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="50" hidden="true">
-      <c r="A50" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F50" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J50" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="K50" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W50" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="51" hidden="true">
-      <c r="A51" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F51" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="G51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J51" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="K51" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52" hidden="true">
-      <c r="A52" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J52" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" hidden="true">
-      <c r="A53" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="F53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="G53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="J53" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AI53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AJ53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO53">
+  <autoFilter ref="A1:AN46">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7595,7 +6289,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI52">
+  <conditionalFormatting sqref="A2:AI45">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
